--- a/medicine/Enfance/Cours_élémentaire_2e_année/Cours_élémentaire_2e_année.xlsx
+++ b/medicine/Enfance/Cours_élémentaire_2e_année/Cours_élémentaire_2e_année.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cours_%C3%A9l%C3%A9mentaire_2e_ann%C3%A9e</t>
+          <t>Cours_élémentaire_2e_année</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cours élémentaire 2e année (CE2), ou troisième année du cycle 2 ou cycle des apprentissages dits fondamentaux. En général, les élèves ont 8 ou 9 ans en fonction de leur date d'anniversaire.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cours_%C3%A9l%C3%A9mentaire_2e_ann%C3%A9e</t>
+          <t>Cours_élémentaire_2e_année</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,49 @@
           <t>Programmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Extrait du bulletin officiel spécial no 11 du 26 novembre 2015[2] :
-Horaires et matières
-Les élèves du CE2 bénéficient d'un enseignement multiple et complet de 26 heures hebdomadaires[3]. Ces horaires sont communs aux trois niveaux du cycle 3.
-Les domaines transversaux</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Extrait du bulletin officiel spécial no 11 du 26 novembre 2015 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cours_élémentaire_2e_année</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cours_%C3%A9l%C3%A9mentaire_2e_ann%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Programmes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Horaires et matières</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les élèves du CE2 bénéficient d'un enseignement multiple et complet de 26 heures hebdomadaires. Ces horaires sont communs aux trois niveaux du cycle 3.
+</t>
         </is>
       </c>
     </row>
